--- a/test_data/via_testing.xlsx
+++ b/test_data/via_testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0031e3abcb28b748/Documents/GitHub/Fully-Integrated-Compliant-Sensing-Skin/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C320B7-BB9D-4C76-BA8D-36E7E2DF1003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{74C320B7-BB9D-4C76-BA8D-36E7E2DF1003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5287BC1F-2794-41A7-AF94-5EE5EFA339DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49A99C87-25EB-4460-B2B8-9A1E0C2EB595}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70FCBCE-3651-4576-A939-C1EDB29E90A1}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,6 +729,10 @@
       <c r="D17">
         <v>10.82</v>
       </c>
+      <c r="E17">
+        <f>AVERAGE(B17:D17)</f>
+        <v>61.096666666666671</v>
+      </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
@@ -746,6 +750,10 @@
       <c r="D18">
         <v>142.78</v>
       </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E19" si="1">AVERAGE(B18:D18)</f>
+        <v>536.66</v>
+      </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
@@ -763,6 +771,10 @@
       <c r="D19">
         <v>44.16</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>90.786666666666676</v>
+      </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
@@ -849,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E31" si="1">AVERAGE(B30:D30)</f>
+        <f t="shared" ref="E30:E31" si="2">AVERAGE(B30:D30)</f>
         <v>2</v>
       </c>
     </row>
@@ -867,7 +879,7 @@
         <v>3.5</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
